--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,9 +46,6 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>defective</t>
-  </si>
-  <si>
     <t>useless</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>however</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -94,208 +88,208 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>best</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>fantastic</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>cake</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>glad</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>bread</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
     <t>son</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>ever</t>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>cream</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>ice</t>
+    <t>exactly</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>makes</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>also</t>
+    <t>last</t>
   </si>
   <si>
     <t>make</t>
@@ -314,6 +308,9 @@
   </si>
   <si>
     <t>use</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>buy</t>
@@ -683,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -752,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -770,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>0.956989247311828</v>
@@ -802,37 +799,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7037037037037037</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -844,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -852,13 +849,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6521739130434783</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -870,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.8840579710144928</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -894,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -902,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -920,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.871517027863777</v>
+        <v>0.8668730650154799</v>
       </c>
       <c r="L6">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M6">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -944,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -952,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4108527131782946</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -970,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8478260869565217</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -994,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1002,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3773584905660378</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1020,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8275862068965517</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1044,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1052,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3434343434343434</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1070,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1094,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1102,13 +1099,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.34</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1120,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.7316017316017316</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L10">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1144,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1152,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2435897435897436</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1170,119 +1167,71 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L11">
+        <v>55</v>
+      </c>
+      <c r="M11">
+        <v>55</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.6983050847457627</v>
+      </c>
+      <c r="L12">
+        <v>206</v>
+      </c>
+      <c r="M12">
+        <v>206</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K11">
-        <v>0.7111111111111111</v>
-      </c>
-      <c r="L11">
-        <v>32</v>
-      </c>
-      <c r="M11">
-        <v>32</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1355932203389831</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>102</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.6915254237288135</v>
-      </c>
-      <c r="L12">
-        <v>204</v>
-      </c>
-      <c r="M12">
-        <v>204</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1243243243243243</v>
-      </c>
-      <c r="C13">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>162</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K13">
-        <v>0.6883116883116883</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L13">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1294,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.6712328767123288</v>
+        <v>0.6500802568218299</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>810</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>810</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1320,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.6619718309859155</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.630016051364366</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L16">
-        <v>785</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>785</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>461</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.5882352941176471</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1398,21 +1347,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.5769230769230769</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,21 +1373,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.5714285714285714</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1450,21 +1399,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.5673076923076923</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L20">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1476,21 +1425,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.5555555555555556</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1502,21 +1451,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5542857142857143</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L22">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1528,21 +1477,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.546875</v>
+        <v>0.515625</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1554,21 +1503,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5384615384615384</v>
+        <v>0.5149700598802395</v>
       </c>
       <c r="L24">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1580,21 +1529,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5329341317365269</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L25">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1606,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5060240963855421</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L26">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1632,12 +1581,12 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K27">
         <v>0.5</v>
@@ -1663,16 +1612,16 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.492063492063492</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1684,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4868421052631579</v>
+        <v>0.49</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1710,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4769230769230769</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1736,21 +1685,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4769230769230769</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1762,21 +1711,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4705882352941176</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1788,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.4358974358974359</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1814,21 +1763,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.43</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1840,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.4210526315789473</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1866,21 +1815,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.3795180722891566</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L36">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M36">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1892,21 +1841,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.3759398496240601</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L37">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1918,21 +1867,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.3673469387755102</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1944,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.3651960784313725</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L39">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M39">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1970,12 +1919,12 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K40">
         <v>0.3618677042801556</v>
@@ -2001,16 +1950,16 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.360655737704918</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2022,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.3529411764705883</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2048,21 +1997,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.3209876543209876</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="L43">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2074,21 +2023,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.3082191780821918</v>
+        <v>0.310958904109589</v>
       </c>
       <c r="L44">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M44">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2100,21 +2049,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.2932330827067669</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2126,21 +2075,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.2909090909090909</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2152,21 +2101,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>0.2857142857142857</v>
+        <v>0.2679425837320574</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2178,21 +2127,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>40</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K48">
-        <v>0.2805755395683453</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L48">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2204,21 +2153,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K49">
-        <v>0.271523178807947</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L49">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M49">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2230,21 +2179,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K50">
-        <v>0.2631578947368421</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="L50">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="M50">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2256,21 +2205,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>154</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K51">
-        <v>0.2631578947368421</v>
+        <v>0.25</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2282,21 +2231,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K52">
-        <v>0.2580645161290323</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2308,21 +2257,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K53">
-        <v>0.2432723358449946</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="L53">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="M53">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2334,21 +2283,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>703</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K54">
-        <v>0.2380952380952381</v>
+        <v>0.2357373519913886</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2360,21 +2309,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>64</v>
+        <v>710</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K55">
-        <v>0.2277227722772277</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2386,21 +2335,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K56">
-        <v>0.2252252252252252</v>
+        <v>0.2066225165562914</v>
       </c>
       <c r="L56">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="M56">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2412,21 +2361,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>86</v>
+        <v>599</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K57">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2443,16 +2392,16 @@
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K58">
-        <v>0.2072072072072072</v>
+        <v>0.198019801980198</v>
       </c>
       <c r="L58">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2464,21 +2413,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K59">
-        <v>0.1960264900662252</v>
+        <v>0.1974921630094044</v>
       </c>
       <c r="L59">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="M59">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2490,21 +2439,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>607</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K60">
-        <v>0.1880877742946709</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L60">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M60">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2516,21 +2465,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>259</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K61">
-        <v>0.1879795396419437</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="L61">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="M61">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2542,21 +2491,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>635</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K62">
-        <v>0.1812080536912752</v>
+        <v>0.180306905370844</v>
       </c>
       <c r="L62">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="M62">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2568,47 +2517,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>122</v>
+        <v>641</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K63">
-        <v>0.1739130434782609</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K64">
-        <v>0.1524390243902439</v>
+        <v>0.1768292682926829</v>
       </c>
       <c r="L64">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M64">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2620,73 +2569,73 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K65">
-        <v>0.1517857142857143</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="L65">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M65">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="N65">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O65">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>95</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K66">
-        <v>0.1436314363143631</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="L66">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M66">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="N66">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>316</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K67">
-        <v>0.1386363636363636</v>
+        <v>0.1229508196721311</v>
       </c>
       <c r="L67">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="M67">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2698,21 +2647,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>379</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K68">
-        <v>0.1186440677966102</v>
+        <v>0.1206140350877193</v>
       </c>
       <c r="L68">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="M68">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2724,21 +2673,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>156</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K69">
-        <v>0.1180811808118081</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="L69">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M69">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2750,21 +2699,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>239</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K70">
-        <v>0.116945107398568</v>
+        <v>0.1180811808118081</v>
       </c>
       <c r="L70">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M70">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2776,21 +2725,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>370</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K71">
-        <v>0.1153846153846154</v>
+        <v>0.1159090909090909</v>
       </c>
       <c r="L71">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="M71">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2802,21 +2751,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>115</v>
+        <v>389</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K72">
-        <v>0.1140350877192982</v>
+        <v>0.1119221411192214</v>
       </c>
       <c r="L72">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M72">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2828,12 +2777,12 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>404</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K73">
         <v>0.1050420168067227</v>
@@ -2859,16 +2808,16 @@
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K74">
-        <v>0.09975669099756691</v>
+        <v>0.1002386634844869</v>
       </c>
       <c r="L74">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M74">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2880,12 +2829,12 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K75">
         <v>0.09965635738831616</v>
@@ -2911,16 +2860,16 @@
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K76">
-        <v>0.09852216748768473</v>
+        <v>0.09815950920245399</v>
       </c>
       <c r="L76">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M76">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2932,47 +2881,47 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>183</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K77">
-        <v>0.08921933085501858</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M77">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N77">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K78">
-        <v>0.06902985074626866</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="L78">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M78">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2984,47 +2933,47 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K79">
-        <v>0.05873925501432665</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L79">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M79">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K80">
-        <v>0.05737704918032787</v>
+        <v>0.06830601092896176</v>
       </c>
       <c r="L80">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M80">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3036,12 +2985,12 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K81">
         <v>0.05350553505535055</v>
@@ -3067,106 +3016,132 @@
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K82">
-        <v>0.04246100519930676</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="L82">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M82">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N82">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O82">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K83">
-        <v>0.04060913705583756</v>
+        <v>0.0387409200968523</v>
       </c>
       <c r="L83">
         <v>16</v>
       </c>
       <c r="M83">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>378</v>
+        <v>397</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K84">
-        <v>0.03461538461538462</v>
+        <v>0.03807106598984772</v>
       </c>
       <c r="L84">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M84">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N84">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>502</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K85">
-        <v>0.0261437908496732</v>
+        <v>0.03461538461538462</v>
       </c>
       <c r="L85">
+        <v>18</v>
+      </c>
+      <c r="M85">
         <v>20</v>
       </c>
-      <c r="M85">
-        <v>22</v>
-      </c>
       <c r="N85">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="O85">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>745</v>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K86">
+        <v>0.01968503937007874</v>
+      </c>
+      <c r="L86">
+        <v>15</v>
+      </c>
+      <c r="M86">
+        <v>20</v>
+      </c>
+      <c r="N86">
+        <v>0.75</v>
+      </c>
+      <c r="O86">
+        <v>0.25</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>747</v>
       </c>
     </row>
   </sheetData>
